--- a/InputData/trans/SDoVPbT/Std Dev of Veh Prices by Technology.xlsx
+++ b/InputData/trans/SDoVPbT/Std Dev of Veh Prices by Technology.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\trans\SDoVPbT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="23955" windowHeight="13110"/>
   </bookViews>
@@ -26,12 +31,12 @@
     <definedName name="cpi_2014to2012">[1]About!$A$103</definedName>
     <definedName name="cpi_2016to2012">[1]About!$A$105</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="628">
   <si>
     <t>SDoVPbT Standard Dev of Vehicle Prices by Technology</t>
   </si>
@@ -42,9 +47,6 @@
     <t>About</t>
   </si>
   <si>
-    <t>This variable is used to help allocate on-road vehicles by technology.</t>
-  </si>
-  <si>
     <t>battery electric vehicle</t>
   </si>
   <si>
@@ -60,9 +62,6 @@
     <t>plugin hybrid vehicle</t>
   </si>
   <si>
-    <t>nonroad vehicle</t>
-  </si>
-  <si>
     <t>LDVs</t>
   </si>
   <si>
@@ -1902,30 +1901,36 @@
     <t>nonroad vehicles</t>
   </si>
   <si>
-    <t>Since non-road vehicles only have one available technology</t>
-  </si>
-  <si>
-    <t>(the "nonroad vehicle" technology), the values in this variable</t>
-  </si>
-  <si>
-    <t>do not matter for non-road vehicles, so long as the values are</t>
-  </si>
-  <si>
-    <t>positive.  We arbitrarily assign a value of $1 to the nonroad</t>
-  </si>
-  <si>
-    <t>vehicle types.</t>
+    <t>LPG vehicle</t>
+  </si>
+  <si>
+    <t>hydrogen vehicle</t>
+  </si>
+  <si>
+    <t>Std Deviation (dimensionless)</t>
+  </si>
+  <si>
+    <t>Start Year</t>
+  </si>
+  <si>
+    <t>of the purchase price of each non-road vehicle type to the purchase price</t>
+  </si>
+  <si>
+    <t>of diesel freight HDVs.</t>
+  </si>
+  <si>
+    <t>We multiply the standard deviation for diesel freight HDVs by the ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1976,8 +1981,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1993,6 +2004,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2064,7 +2081,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2103,6 +2120,17 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Body: normal cell" xfId="2"/>
@@ -2121,6 +2149,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2234,7 +2265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2269,7 +2300,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2478,7 +2509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2497,12 +2528,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,132 +2543,132 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2645,12 +2676,12 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2660,12 +2691,12 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2678,67 +2709,67 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>622</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>616</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>627</v>
+      <c r="A49" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>10</v>
+      <c r="A51" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>618</v>
+        <v>507</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>619</v>
+        <v>508</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>620</v>
+      <c r="A55" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>11</v>
+      <c r="A57" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
@@ -2748,42 +2779,27 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>510</v>
+      <c r="A61" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>15</v>
+      <c r="A63" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>528</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -2810,24 +2826,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2838,10 +2854,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2852,10 +2868,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2866,10 +2882,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2880,10 +2896,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2894,10 +2910,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>535</v>
+      </c>
+      <c r="B7" t="s">
         <v>537</v>
-      </c>
-      <c r="B7" t="s">
-        <v>539</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2908,10 +2924,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -2922,10 +2938,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B9" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -2936,10 +2952,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -2950,10 +2966,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -2964,10 +2980,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -2978,10 +2994,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B13" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -2992,10 +3008,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B14" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -3006,10 +3022,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -3020,10 +3036,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B16" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -3034,10 +3050,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -3048,10 +3064,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B18" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -3062,10 +3078,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B19" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -3076,10 +3092,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B20" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -3090,10 +3106,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B21" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -3104,10 +3120,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B22" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -3118,10 +3134,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B23" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -3132,10 +3148,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B24" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -3146,10 +3162,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B25" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -3160,10 +3176,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B26" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -3174,10 +3190,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B27" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -3188,10 +3204,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B28" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -3202,10 +3218,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B29" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -3216,10 +3232,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B30" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -3230,10 +3246,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B31" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -3244,10 +3260,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B32" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -3258,10 +3274,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B33" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -3272,10 +3288,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B34" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -3286,7 +3302,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B35" s="13">
         <v>1500</v>
@@ -3300,10 +3316,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B36" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -3314,10 +3330,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B37" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -3328,7 +3344,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B38" s="13">
         <v>3</v>
@@ -3342,10 +3358,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B39" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -3356,10 +3372,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B40" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -3370,10 +3386,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B41" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -3384,10 +3400,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B42" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -3398,10 +3414,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B43" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -3412,10 +3428,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B44" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -3426,10 +3442,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -3440,10 +3456,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B46" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -3454,10 +3470,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B47" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -3468,10 +3484,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B48" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -3482,10 +3498,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B49" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -3496,10 +3512,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B50" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -3510,10 +3526,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B51" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -3542,10 +3558,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4">
         <v>119000</v>
@@ -3553,10 +3569,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4">
         <v>119800</v>
@@ -3564,10 +3580,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4">
         <v>119000</v>
@@ -3575,10 +3591,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4">
         <v>119800</v>
@@ -3586,10 +3602,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4">
         <v>122900</v>
@@ -3597,10 +3613,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4">
         <v>154900</v>
@@ -3608,10 +3624,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4">
         <v>129330</v>
@@ -3619,10 +3635,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4">
         <v>123000</v>
@@ -3630,10 +3646,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4">
         <v>135900</v>
@@ -3641,10 +3657,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4">
         <v>131175</v>
@@ -3652,10 +3668,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4">
         <v>128200</v>
@@ -3663,10 +3679,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4">
         <v>129190</v>
@@ -3674,10 +3690,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4">
         <v>127516</v>
@@ -3685,10 +3701,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4">
         <v>130257</v>
@@ -3696,10 +3712,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4">
         <v>127450</v>
@@ -3707,10 +3723,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4">
         <v>132250</v>
@@ -3718,10 +3734,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="4">
         <v>128530</v>
@@ -3729,10 +3745,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4">
         <v>132698</v>
@@ -3740,10 +3756,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4">
         <v>139900</v>
@@ -3751,10 +3767,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4">
         <v>135523</v>
@@ -3762,10 +3778,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" s="4">
         <v>128200</v>
@@ -3773,10 +3789,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="4">
         <v>187500</v>
@@ -3784,10 +3800,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="4">
         <v>133744</v>
@@ -3795,10 +3811,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="4">
         <v>129462</v>
@@ -3806,10 +3822,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" s="4">
         <v>129462</v>
@@ -3817,10 +3833,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4">
         <v>129190</v>
@@ -3828,10 +3844,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="4">
         <v>128149</v>
@@ -3839,10 +3855,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="4">
         <v>131215</v>
@@ -3850,10 +3866,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C29" s="4">
         <v>137085</v>
@@ -3861,10 +3877,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="4">
         <v>138800</v>
@@ -3872,10 +3888,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" s="4">
         <v>124167</v>
@@ -3883,10 +3899,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4">
         <v>124500</v>
@@ -3894,10 +3910,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" s="4">
         <v>173500</v>
@@ -3905,10 +3921,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34" s="4">
         <v>135523</v>
@@ -3916,10 +3932,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C35" s="4">
         <v>124791</v>
@@ -3927,10 +3943,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C36" s="4">
         <v>129330</v>
@@ -3938,10 +3954,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C37" s="4">
         <v>129330</v>
@@ -3949,10 +3965,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38" s="4">
         <v>126994</v>
@@ -3960,10 +3976,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C39" s="4">
         <v>125046</v>
@@ -3971,10 +3987,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C40" s="4">
         <v>136900</v>
@@ -3982,10 +3998,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C41" s="4">
         <v>130436</v>
@@ -3993,10 +4009,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C42" s="4">
         <v>129330</v>
@@ -4004,10 +4020,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C43" s="4">
         <v>129330</v>
@@ -4015,10 +4031,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C44" s="4">
         <v>123000</v>
@@ -4026,10 +4042,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C45" s="4">
         <v>134672</v>
@@ -4037,10 +4053,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46" s="4">
         <v>144900</v>
@@ -4048,10 +4064,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C47" s="4">
         <v>123000</v>
@@ -4059,10 +4075,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C48" s="4">
         <v>137085</v>
@@ -4070,10 +4086,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C49" s="4">
         <v>128400</v>
@@ -4081,10 +4097,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C50" s="4">
         <v>144750</v>
@@ -4092,10 +4108,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C51" s="4">
         <v>129330</v>
@@ -4103,10 +4119,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C52" s="4">
         <v>127450</v>
@@ -4114,10 +4130,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C53" s="4">
         <v>132900</v>
@@ -4125,10 +4141,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C54" s="4">
         <v>134675</v>
@@ -4136,10 +4152,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C55" s="4">
         <v>134672</v>
@@ -4147,10 +4163,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C56" s="4">
         <v>129330</v>
@@ -4158,10 +4174,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C57" s="4">
         <v>112520</v>
@@ -4169,10 +4185,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C58" s="4">
         <v>129950</v>
@@ -4180,10 +4196,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C59" s="4">
         <v>128400</v>
@@ -4191,10 +4207,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C60" s="4">
         <v>126576</v>
@@ -4202,10 +4218,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C61" s="4">
         <v>128200</v>
@@ -4213,10 +4229,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C62" s="4">
         <v>132700</v>
@@ -4224,10 +4240,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C63" s="4">
         <v>121850</v>
@@ -4235,10 +4251,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C64" s="4">
         <v>137085</v>
@@ -4246,10 +4262,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C65" s="4">
         <v>126994</v>
@@ -4257,10 +4273,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C66" s="4">
         <v>118900</v>
@@ -4268,10 +4284,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C67" s="4">
         <v>130436</v>
@@ -4279,10 +4295,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C68" s="4">
         <v>126994</v>
@@ -4290,10 +4306,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C69" s="4">
         <v>120874</v>
@@ -4301,10 +4317,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C70" s="4">
         <v>126994</v>
@@ -4312,10 +4328,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C71" s="4">
         <v>135900</v>
@@ -4323,10 +4339,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C72" s="4">
         <v>140759</v>
@@ -4334,10 +4350,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C73" s="4">
         <v>105000</v>
@@ -4345,10 +4361,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C74" s="4">
         <v>128733</v>
@@ -4356,10 +4372,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C75" s="4">
         <v>129526</v>
@@ -4367,10 +4383,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C76" s="4">
         <v>120566</v>
@@ -4378,10 +4394,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C77" s="4">
         <v>137281</v>
@@ -4389,10 +4405,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C78" s="4">
         <v>129190</v>
@@ -4400,10 +4416,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C79" s="4">
         <v>133450</v>
@@ -4411,10 +4427,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C80" s="4">
         <v>132180</v>
@@ -4422,10 +4438,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C81" s="4">
         <v>126539</v>
@@ -4433,10 +4449,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C82" s="4">
         <v>123785</v>
@@ -4444,10 +4460,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C83" s="4">
         <v>136005</v>
@@ -4455,10 +4471,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C84" s="4">
         <v>128570</v>
@@ -4466,10 +4482,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C85" s="4">
         <v>133680</v>
@@ -4477,10 +4493,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C86" s="4">
         <v>126948</v>
@@ -4488,10 +4504,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C87" s="4">
         <v>128950</v>
@@ -4499,10 +4515,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C88" s="4">
         <v>129190</v>
@@ -4510,10 +4526,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C89" s="4">
         <v>129190</v>
@@ -4521,10 +4537,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C90" s="4">
         <v>129190</v>
@@ -4532,10 +4548,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C91" s="4">
         <v>124693</v>
@@ -4543,10 +4559,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C92" s="4">
         <v>123648</v>
@@ -4554,10 +4570,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C93" s="4">
         <v>123648</v>
@@ -4565,10 +4581,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C94" s="4">
         <v>126539</v>
@@ -4576,10 +4592,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C95" s="4">
         <v>111900</v>
@@ -4587,10 +4603,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C96" s="4">
         <v>123648</v>
@@ -4598,10 +4614,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C97" s="4">
         <v>126539</v>
@@ -4609,10 +4625,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C98" s="4">
         <v>123648</v>
@@ -4620,10 +4636,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B99" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C99" s="4">
         <v>142008</v>
@@ -4631,10 +4647,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C100" s="4">
         <v>129190</v>
@@ -4642,10 +4658,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C101" s="4">
         <v>129190</v>
@@ -4653,10 +4669,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C102" s="4">
         <v>123648</v>
@@ -4664,10 +4680,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B103" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C103" s="4">
         <v>123648</v>
@@ -4675,10 +4691,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C104" s="4">
         <v>131215</v>
@@ -4686,10 +4702,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C105" s="4">
         <v>140060</v>
@@ -4697,10 +4713,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C106" s="4">
         <v>123648</v>
@@ -4708,10 +4724,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B107" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C107" s="4">
         <v>123648</v>
@@ -4719,10 +4735,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B108" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C108" s="4">
         <v>111900</v>
@@ -4730,10 +4746,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B109" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C109" s="4">
         <v>123648</v>
@@ -4741,10 +4757,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B110" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C110" s="4">
         <v>139932</v>
@@ -4752,10 +4768,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B111" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C111" s="4">
         <v>128500</v>
@@ -4763,10 +4779,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C112" s="4">
         <v>133680</v>
@@ -4774,10 +4790,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B113" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C113" s="4">
         <v>133744</v>
@@ -4785,10 +4801,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C114" s="4">
         <v>132444</v>
@@ -4796,10 +4812,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B115" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C115" s="4">
         <v>143314</v>
@@ -4807,10 +4823,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B116" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C116" s="4">
         <v>132180</v>
@@ -4818,10 +4834,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B117" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C117" s="4">
         <v>144500</v>
@@ -4829,10 +4845,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B118" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C118" s="4">
         <v>129190</v>
@@ -4840,10 +4856,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B119" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C119" s="4">
         <v>144214</v>
@@ -4851,10 +4867,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C120" s="4">
         <v>143500</v>
@@ -4862,10 +4878,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B121" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C121" s="4">
         <v>133745</v>
@@ -4873,10 +4889,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B122" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C122" s="4">
         <v>133744</v>
@@ -4884,10 +4900,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B123" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C123" s="4">
         <v>133744</v>
@@ -4895,10 +4911,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B124" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C124" s="4">
         <v>133744</v>
@@ -4906,10 +4922,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B125" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C125" s="4">
         <v>152980</v>
@@ -4917,10 +4933,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B126" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C126" s="4">
         <v>128570</v>
@@ -4928,10 +4944,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B127" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C127" s="4">
         <v>123648</v>
@@ -4939,10 +4955,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B128" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C128" s="4">
         <v>130257</v>
@@ -4950,10 +4966,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B129" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C129" s="4">
         <v>130086</v>
@@ -4961,10 +4977,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B130" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C130" s="4">
         <v>128295</v>
@@ -4972,10 +4988,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C131" s="4">
         <v>128397</v>
@@ -4983,10 +4999,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B132" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C132" s="4">
         <v>130746</v>
@@ -4994,10 +5010,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C133" s="4">
         <v>132250</v>
@@ -5005,10 +5021,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B134" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C134" s="4">
         <v>128030</v>
@@ -5016,10 +5032,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B135" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C135" s="4">
         <v>133680</v>
@@ -5027,10 +5043,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B136" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C136" s="4">
         <v>134920</v>
@@ -5038,10 +5054,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B137" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C137" s="4">
         <v>132250</v>
@@ -5049,10 +5065,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B138" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C138" s="4">
         <v>111900</v>
@@ -5060,10 +5076,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B139" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C139" s="4">
         <v>130436</v>
@@ -5071,10 +5087,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C140" s="4">
         <v>135523</v>
@@ -5082,10 +5098,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C141" s="4">
         <v>123785</v>
@@ -5093,10 +5109,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B142" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C142" s="4">
         <v>136500</v>
@@ -5104,10 +5120,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B143" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C143" s="4">
         <v>129330</v>
@@ -5115,10 +5131,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B144" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C144" s="4">
         <v>133744</v>
@@ -5126,10 +5142,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B145" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C145" s="4">
         <v>132180</v>
@@ -5137,10 +5153,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B146" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C146" s="4">
         <v>136005</v>
@@ -5148,10 +5164,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B147" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C147" s="4">
         <v>127078</v>
@@ -5159,10 +5175,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B148" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C148" s="4">
         <v>124693</v>
@@ -5170,10 +5186,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B149" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C149" s="4">
         <v>117149</v>
@@ -5181,10 +5197,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B150" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C150" s="4">
         <v>128676</v>
@@ -5192,10 +5208,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B151" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C151" s="4">
         <v>136219</v>
@@ -5203,10 +5219,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B152" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C152" s="4">
         <v>128676</v>
@@ -5214,10 +5230,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B153" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C153" s="4">
         <v>123785</v>
@@ -5225,10 +5241,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B154" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C154" s="4">
         <v>131215</v>
@@ -5236,10 +5252,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B155" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C155" s="4">
         <v>135523</v>
@@ -5247,10 +5263,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B156" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C156" s="4">
         <v>175000</v>
@@ -5258,10 +5274,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B157" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C157" s="4">
         <v>148677</v>
@@ -5269,10 +5285,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B158" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C158" s="4">
         <v>137900</v>
@@ -5280,10 +5296,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B159" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C159" s="4">
         <v>126539</v>
@@ -5291,10 +5307,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B160" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C160" s="4">
         <v>131683</v>
@@ -5302,10 +5318,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B161" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C161" s="4">
         <v>128030</v>
@@ -5313,10 +5329,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B162" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C162" s="4">
         <v>132180</v>
@@ -5324,10 +5340,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B163" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C163" s="4">
         <v>132018</v>
@@ -5335,10 +5351,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B164" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C164" s="4">
         <v>130881</v>
@@ -5346,10 +5362,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B165" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C165" s="4">
         <v>129462</v>
@@ -5357,10 +5373,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B166" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C166" s="4">
         <v>156800</v>
@@ -5368,10 +5384,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B167" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C167" s="4">
         <v>144500</v>
@@ -5379,10 +5395,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B168" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C168" s="4">
         <v>132180</v>
@@ -5390,10 +5406,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B169" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C169" s="4">
         <v>129712</v>
@@ -5401,10 +5417,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B170" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C170" s="4">
         <v>136345</v>
@@ -5412,10 +5428,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B171" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C171" s="4">
         <v>120617</v>
@@ -5423,10 +5439,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B172" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C172" s="4">
         <v>127111</v>
@@ -5434,10 +5450,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B173" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C173" s="4">
         <v>137454</v>
@@ -5445,10 +5461,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B174" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C174" s="4">
         <v>128856</v>
@@ -5456,10 +5472,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B175" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C175" s="4">
         <v>132018</v>
@@ -5467,10 +5483,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B176" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C176" s="4">
         <v>111900</v>
@@ -5478,10 +5494,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B177" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C177" s="4">
         <v>130256</v>
@@ -5489,10 +5505,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C178" s="4">
         <v>131500</v>
@@ -5500,10 +5516,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B179" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C179" s="4">
         <v>133409</v>
@@ -5511,10 +5527,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B180" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C180" s="4">
         <v>138957</v>
@@ -5522,10 +5538,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B181" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C181" s="4">
         <v>128733</v>
@@ -5533,10 +5549,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B182" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C182" s="4">
         <v>129526</v>
@@ -5544,10 +5560,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B183" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C183" s="4">
         <v>131500</v>
@@ -5555,10 +5571,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B184" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C184" s="4">
         <v>129462</v>
@@ -5566,10 +5582,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B185" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C185" s="4">
         <v>133801</v>
@@ -5577,10 +5593,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B186" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C186" s="4">
         <v>135523</v>
@@ -5588,10 +5604,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B187" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C187" s="4">
         <v>132180</v>
@@ -5599,10 +5615,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B188" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C188" s="4">
         <v>128676</v>
@@ -5610,10 +5626,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B189" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C189" s="4">
         <v>132250</v>
@@ -5621,10 +5637,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B190" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C190" s="4">
         <v>132180</v>
@@ -5632,10 +5648,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B191" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C191" s="4">
         <v>185000</v>
@@ -5643,10 +5659,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B192" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C192" s="4">
         <v>120617</v>
@@ -5654,10 +5670,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B193" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C193" s="4">
         <v>132018</v>
@@ -5665,10 +5681,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B194" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C194" s="4">
         <v>289000</v>
@@ -5676,10 +5692,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B195" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C195" s="4">
         <v>135500</v>
@@ -5687,10 +5703,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B196" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C196" s="4">
         <v>149592</v>
@@ -5698,10 +5714,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B197" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C197" s="4">
         <v>128856</v>
@@ -5709,10 +5725,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B198" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C198" s="4">
         <v>129462</v>
@@ -5720,10 +5736,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B199" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C199" s="4">
         <v>131450</v>
@@ -5731,10 +5747,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B200" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C200" s="4">
         <v>138775</v>
@@ -5742,10 +5758,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B201" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C201" s="4">
         <v>138775</v>
@@ -5753,10 +5769,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B202" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C202" s="4">
         <v>131369</v>
@@ -5764,10 +5780,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B203" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C203" s="4">
         <v>133680</v>
@@ -5775,10 +5791,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B204" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C204" s="4">
         <v>126539</v>
@@ -5786,10 +5802,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B205" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C205" s="4">
         <v>124693</v>
@@ -5797,10 +5813,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B206" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C206" s="4">
         <v>126539</v>
@@ -5808,10 +5824,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B207" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C207" s="4">
         <v>126539</v>
@@ -5819,10 +5835,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B208" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C208" s="4">
         <v>126539</v>
@@ -5830,10 +5846,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B209" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C209" s="4">
         <v>126539</v>
@@ -5841,10 +5857,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B210" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C210" s="4">
         <v>132900</v>
@@ -5852,10 +5868,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B211" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C211" s="4">
         <v>130257</v>
@@ -5863,10 +5879,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B212" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C212" s="4">
         <v>132551</v>
@@ -5874,10 +5890,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B213" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C213" s="4">
         <v>130257</v>
@@ -5885,10 +5901,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B214" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C214" s="4">
         <v>147838</v>
@@ -5896,10 +5912,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B215" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C215" s="4">
         <v>129462</v>
@@ -5907,10 +5923,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B216" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C216" s="4">
         <v>127513</v>
@@ -5918,10 +5934,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B217" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C217" s="4">
         <v>131215</v>
@@ -5929,10 +5945,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B218" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C218" s="4">
         <v>151734</v>
@@ -5940,10 +5956,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B219" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C219" s="4">
         <v>132500</v>
@@ -5951,10 +5967,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B220" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C220" s="4">
         <v>174105</v>
@@ -5962,10 +5978,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B221" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C221" s="4">
         <v>140253</v>
@@ -5973,10 +5989,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B222" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C222" s="4">
         <v>132250</v>
@@ -5984,10 +6000,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B223" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C223" s="4">
         <v>132180</v>
@@ -5995,10 +6011,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B224" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C224" s="4">
         <v>120566</v>
@@ -6006,10 +6022,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B225" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C225" s="4">
         <v>120566</v>
@@ -6017,10 +6033,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B226" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C226" s="4">
         <v>207200</v>
@@ -6028,10 +6044,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B227" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C227" s="4">
         <v>132444</v>
@@ -6039,10 +6055,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B228" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C228" s="4">
         <v>120566</v>
@@ -6050,10 +6066,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B229" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C229" s="4">
         <v>124526</v>
@@ -6061,10 +6077,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B230" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C230" s="4">
         <v>120566</v>
@@ -6072,10 +6088,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B231" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C231" s="4">
         <v>111900</v>
@@ -6083,10 +6099,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B232" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C232" s="4">
         <v>120566</v>
@@ -6094,10 +6110,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B233" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C233" s="4">
         <v>120566</v>
@@ -6105,10 +6121,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B234" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C234" s="4">
         <v>129462</v>
@@ -6116,10 +6132,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B235" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C235" s="4">
         <v>128030</v>
@@ -6127,10 +6143,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B236" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C236" s="4">
         <v>129190</v>
@@ -6138,10 +6154,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B237" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C237" s="4">
         <v>111900</v>
@@ -6149,10 +6165,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B238" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C238" s="4">
         <v>133680</v>
@@ -6160,10 +6176,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B239" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C239" s="4">
         <v>130257</v>
@@ -6171,10 +6187,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B240" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C240" s="4">
         <v>132180</v>
@@ -6182,10 +6198,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B241" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C241" s="4">
         <v>133680</v>
@@ -6193,10 +6209,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B242" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C242" s="4">
         <v>179120</v>
@@ -6204,10 +6220,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B243" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C243" s="4">
         <v>179120</v>
@@ -6215,10 +6231,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B244" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C244" s="4">
         <v>127740</v>
@@ -6226,10 +6242,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B245" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C245" s="4">
         <v>120566</v>
@@ -6237,10 +6253,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B246" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C246" s="4">
         <v>129190</v>
@@ -6248,10 +6264,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B247" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C247" s="4">
         <v>175000</v>
@@ -6278,10 +6294,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C1" s="5">
         <v>142405</v>
@@ -6289,10 +6305,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C2" s="5">
         <v>129900</v>
@@ -6300,10 +6316,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C3" s="5">
         <v>125950</v>
@@ -6311,10 +6327,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C4" s="5">
         <v>142988</v>
@@ -6322,10 +6338,10 @@
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C5" s="5">
         <v>136835</v>
@@ -6333,10 +6349,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5">
         <v>145650</v>
@@ -6344,10 +6360,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C7" s="5">
         <v>146000</v>
@@ -6355,10 +6371,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C8" s="5">
         <v>148600</v>
@@ -6366,10 +6382,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C9" s="5">
         <v>136900</v>
@@ -6377,10 +6393,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C10" s="5">
         <v>144500</v>
@@ -6388,10 +6404,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5">
         <v>135090</v>
@@ -6399,10 +6415,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C12" s="5">
         <v>143860</v>
@@ -6410,10 +6426,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="5">
         <v>138500</v>
@@ -6421,10 +6437,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5">
         <v>148275</v>
@@ -6432,10 +6448,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C15" s="5">
         <v>136500</v>
@@ -6443,10 +6459,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" s="5">
         <v>140608</v>
@@ -6454,10 +6470,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="5">
         <v>165536</v>
@@ -6465,10 +6481,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C18" s="5">
         <v>151764</v>
@@ -6476,10 +6492,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="5">
         <v>138500</v>
@@ -6487,10 +6503,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="5">
         <v>165718</v>
@@ -6498,10 +6514,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" s="5">
         <v>139500</v>
@@ -6509,10 +6525,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="5">
         <v>139500</v>
@@ -6520,10 +6536,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5">
         <v>151000</v>
@@ -6531,10 +6547,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="5">
         <v>144000</v>
@@ -6542,10 +6558,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B25" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C25" s="5">
         <v>141750</v>
@@ -6553,10 +6569,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C26" s="5">
         <v>145934</v>
@@ -6564,10 +6580,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="5">
         <v>141150</v>
@@ -6575,10 +6591,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28" s="5">
         <v>144500</v>
@@ -6586,10 +6602,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="5">
         <v>136500</v>
@@ -6597,10 +6613,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="5">
         <v>138500</v>
@@ -6608,10 +6624,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B31" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C31" s="5">
         <v>140500</v>
@@ -6619,10 +6635,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="5">
         <v>144775</v>
@@ -6630,10 +6646,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" s="5">
         <v>147555</v>
@@ -6641,10 +6657,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C34" s="5">
         <v>132000</v>
@@ -6652,10 +6668,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C35" s="5">
         <v>131211</v>
@@ -6663,10 +6679,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C36" s="5">
         <v>147500</v>
@@ -6674,10 +6690,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C37" s="5">
         <v>141600</v>
@@ -6685,10 +6701,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C38" s="5">
         <v>144000</v>
@@ -6696,10 +6712,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C39" s="5">
         <v>155900</v>
@@ -6707,10 +6723,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="5">
         <v>137500</v>
@@ -6718,10 +6734,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C41" s="5">
         <v>136483</v>
@@ -6729,10 +6745,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C42" s="5">
         <v>131900</v>
@@ -6740,10 +6756,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C43" s="5">
         <v>131900</v>
@@ -6751,10 +6767,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" s="5">
         <v>127995</v>
@@ -6762,10 +6778,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C45" s="5">
         <v>145385</v>
@@ -6773,10 +6789,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C46" s="5">
         <v>145180</v>
@@ -6784,10 +6800,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C47" s="5">
         <v>140460</v>
@@ -6795,10 +6811,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B48" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C48" s="5">
         <v>146000</v>
@@ -6806,10 +6822,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C49" s="5">
         <v>137468</v>
@@ -6817,10 +6833,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C50" s="5">
         <v>148351</v>
@@ -6828,10 +6844,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C51" s="5">
         <v>153543</v>
@@ -6839,10 +6855,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C52" s="5">
         <v>147429</v>
@@ -6850,10 +6866,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B53" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C53" s="5">
         <v>146000</v>
@@ -6861,10 +6877,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C54" s="5">
         <v>131900</v>
@@ -6872,10 +6888,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B55" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C55" s="5">
         <v>144800</v>
@@ -6883,10 +6899,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C56" s="5">
         <v>141245</v>
@@ -6894,10 +6910,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B57" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C57" s="5">
         <v>146000</v>
@@ -6905,10 +6921,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C58" s="5">
         <v>131900</v>
@@ -6916,10 +6932,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C59" s="5">
         <v>146800</v>
@@ -6927,10 +6943,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C60" s="5">
         <v>141898</v>
@@ -6938,10 +6954,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C61" s="5">
         <v>147780</v>
@@ -6949,10 +6965,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C62" s="5">
         <v>129900</v>
@@ -6960,10 +6976,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B63" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C63" s="5">
         <v>145375</v>
@@ -6971,10 +6987,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C64" s="5">
         <v>159000</v>
@@ -6982,10 +6998,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C65" s="5">
         <v>129900</v>
@@ -6993,10 +7009,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C66" s="5">
         <v>149391</v>
@@ -7004,10 +7020,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C67" s="5">
         <v>129900</v>
@@ -7015,10 +7031,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C68" s="5">
         <v>146500</v>
@@ -7026,10 +7042,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C69" s="5">
         <v>131900</v>
@@ -7037,10 +7053,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C70" s="5">
         <v>131900</v>
@@ -7048,10 +7064,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C71" s="5">
         <v>136900</v>
@@ -7059,10 +7075,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B72" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C72" s="5">
         <v>149285</v>
@@ -7070,10 +7086,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C73" s="5">
         <v>146655</v>
@@ -7081,10 +7097,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C74" s="5">
         <v>146655</v>
@@ -7092,10 +7108,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B75" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C75" s="5">
         <v>131900</v>
@@ -7103,10 +7119,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C76" s="5">
         <v>145180</v>
@@ -7114,10 +7130,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C77" s="5">
         <v>153814</v>
@@ -7125,10 +7141,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C78" s="5">
         <v>148613</v>
@@ -7136,10 +7152,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B79" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C79" s="5">
         <v>131900</v>
@@ -7147,10 +7163,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C80" s="5">
         <v>134900</v>
@@ -7158,10 +7174,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C81" s="5">
         <v>146000</v>
@@ -7169,10 +7185,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C82" s="5">
         <v>151674</v>
@@ -7180,10 +7196,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C83" s="5">
         <v>146655</v>
@@ -7191,10 +7207,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B84" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C84" s="5">
         <v>146500</v>
@@ -7202,10 +7218,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C85" s="5">
         <v>146655</v>
@@ -7213,10 +7229,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B86" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C86" s="5">
         <v>146655</v>
@@ -7224,10 +7240,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B87" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C87" s="5">
         <v>131900</v>
@@ -7235,10 +7251,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C88" s="5">
         <v>146655</v>
@@ -7246,10 +7262,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C89" s="5">
         <v>138407</v>
@@ -7257,10 +7273,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B90" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C90" s="5">
         <v>129900</v>
@@ -7268,10 +7284,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C91" s="5">
         <v>138407</v>
@@ -7279,10 +7295,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C92" s="5">
         <v>166322</v>
@@ -7290,10 +7306,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C93" s="5">
         <v>132993</v>
@@ -7301,10 +7317,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B94" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C94" s="5">
         <v>150929</v>
@@ -7312,10 +7328,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C95" s="5">
         <v>143860</v>
@@ -7323,10 +7339,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B96" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C96" s="5">
         <v>129900</v>
@@ -7334,10 +7350,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B97" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C97" s="5">
         <v>150699</v>
@@ -7345,10 +7361,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B98" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C98" s="5">
         <v>136908</v>
@@ -7356,10 +7372,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B99" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C99" s="5">
         <v>131900</v>
@@ -7367,10 +7383,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B100" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C100" s="5">
         <v>150500</v>
@@ -7378,10 +7394,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B101" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C101" s="5">
         <v>147311</v>
@@ -7389,10 +7405,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C102" s="5">
         <v>151500</v>
@@ -7400,10 +7416,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B103" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C103" s="5">
         <v>135090</v>
@@ -7411,10 +7427,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C104" s="5">
         <v>135090</v>
@@ -7422,10 +7438,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B105" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C105" s="5">
         <v>129900</v>
@@ -7433,10 +7449,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B106" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C106" s="5">
         <v>156500</v>
@@ -7444,10 +7460,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B107" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C107" s="5">
         <v>146750</v>
@@ -7455,10 +7471,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B108" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C108" s="5">
         <v>137900</v>
@@ -7466,10 +7482,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B109" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C109" s="5">
         <v>150750</v>
@@ -7477,10 +7493,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B110" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C110" s="5">
         <v>150750</v>
@@ -7488,10 +7504,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B111" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C111" s="5">
         <v>150000</v>
@@ -7499,10 +7515,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B112" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C112" s="5">
         <v>143529</v>
@@ -7510,10 +7526,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B113" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C113" s="5">
         <v>129900</v>
@@ -7521,10 +7537,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B114" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C114" s="5">
         <v>129900</v>
@@ -7532,10 +7548,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B115" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C115" s="5">
         <v>145200</v>
@@ -7543,10 +7559,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B116" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C116" s="5">
         <v>150699</v>
@@ -7554,10 +7570,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B117" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C117" s="5">
         <v>136900</v>
@@ -7565,10 +7581,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B118" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C118" s="5">
         <v>135090</v>
@@ -7576,10 +7592,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B119" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C119" s="5">
         <v>135090</v>
@@ -7587,10 +7603,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B120" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C120" s="5">
         <v>129900</v>
@@ -7598,10 +7614,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B121" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C121" s="5">
         <v>148900</v>
@@ -7609,10 +7625,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B122" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C122" s="5">
         <v>131900</v>
@@ -7620,10 +7636,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B123" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C123" s="5">
         <v>131900</v>
@@ -7631,10 +7647,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B124" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C124" s="5">
         <v>143500</v>
@@ -7642,10 +7658,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B125" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C125" s="5">
         <v>147600</v>
@@ -7653,10 +7669,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B126" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C126" s="5">
         <v>131900</v>
@@ -7664,10 +7680,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B127" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C127" s="5">
         <v>139000</v>
@@ -7675,10 +7691,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B128" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C128" s="5">
         <v>138407</v>
@@ -7686,10 +7702,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B129" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C129" s="5">
         <v>138407</v>
@@ -7697,10 +7713,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B130" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C130" s="5">
         <v>135090</v>
@@ -7708,10 +7724,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C131" s="5">
         <v>146972</v>
@@ -7719,10 +7735,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B132" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C132" s="5">
         <v>146972</v>
@@ -7730,10 +7746,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B133" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C133" s="5">
         <v>146000</v>
@@ -7741,10 +7757,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B134" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C134" s="5">
         <v>150475</v>
@@ -7752,10 +7768,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B135" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C135" s="5">
         <v>136581</v>
@@ -7763,10 +7779,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B136" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C136" s="5">
         <v>129900</v>
@@ -7774,10 +7790,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B137" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C137" s="5">
         <v>129900</v>
@@ -7785,10 +7801,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B138" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C138" s="5">
         <v>136900</v>
@@ -7796,10 +7812,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B139" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C139" s="5">
         <v>134500</v>
@@ -7807,10 +7823,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B140" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C140" s="5">
         <v>156236</v>
@@ -7818,10 +7834,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B141" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C141" s="5">
         <v>151299</v>
@@ -7829,10 +7845,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B142" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C142" s="5">
         <v>129900</v>
@@ -7840,10 +7856,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B143" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C143" s="5">
         <v>143100</v>
@@ -7851,10 +7867,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B144" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C144" s="5">
         <v>142880</v>
@@ -7862,10 +7878,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B145" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C145" s="5">
         <v>131900</v>
@@ -7873,10 +7889,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B146" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C146" s="5">
         <v>129900</v>
@@ -7884,10 +7900,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C147" s="5">
         <v>129900</v>
@@ -7895,10 +7911,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B148" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C148" s="5">
         <v>131900</v>
@@ -7906,10 +7922,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B149" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C149" s="5">
         <v>131900</v>
@@ -7917,10 +7933,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B150" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C150" s="5">
         <v>141690</v>
@@ -7928,10 +7944,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B151" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C151" s="5">
         <v>129900</v>
@@ -7939,10 +7955,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B152" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C152" s="5">
         <v>136900</v>
@@ -7950,10 +7966,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B153" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C153" s="5">
         <v>139900</v>
@@ -7961,10 +7977,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B154" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C154" s="5">
         <v>144800</v>
@@ -7972,10 +7988,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B155" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C155" s="5">
         <v>136196</v>
@@ -7983,10 +7999,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B156" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C156" s="5">
         <v>144850</v>
@@ -7994,10 +8010,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B157" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C157" s="5">
         <v>135136</v>
@@ -8005,10 +8021,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B158" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C158" s="5">
         <v>135136</v>
@@ -8016,10 +8032,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B159" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C159" s="5">
         <v>135136</v>
@@ -8027,10 +8043,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B160" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C160" s="5">
         <v>135136</v>
@@ -8038,10 +8054,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B161" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C161" s="5">
         <v>146000</v>
@@ -8049,10 +8065,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B162" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C162" s="5">
         <v>129900</v>
@@ -8060,10 +8076,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B163" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C163" s="5">
         <v>129900</v>
@@ -8071,10 +8087,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B164" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C164" s="5">
         <v>146750</v>
@@ -8082,10 +8098,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B165" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C165" s="5">
         <v>132300</v>
@@ -8093,10 +8109,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B166" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C166" s="5">
         <v>141034</v>
@@ -8104,10 +8120,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B167" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C167" s="5">
         <v>145900</v>
@@ -8115,10 +8131,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B168" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C168" s="5">
         <v>148191</v>
@@ -8126,10 +8142,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B169" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C169" s="5">
         <v>136900</v>
@@ -8137,10 +8153,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B170" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C170" s="5">
         <v>150499</v>
@@ -8148,10 +8164,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B171" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C171" s="5">
         <v>131900</v>
@@ -8159,10 +8175,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B172" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C172" s="5">
         <v>131900</v>
@@ -8170,10 +8186,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B173" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C173" s="5">
         <v>152753</v>
@@ -8181,10 +8197,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B174" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C174" s="5">
         <v>131900</v>
@@ -8192,10 +8208,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B175" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C175" s="5">
         <v>129900</v>
@@ -8203,10 +8219,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B176" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C176" s="5">
         <v>142880</v>
@@ -8214,10 +8230,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B177" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C177" s="5">
         <v>142977</v>
@@ -8225,10 +8241,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B178" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C178" s="5">
         <v>156500</v>
@@ -8236,10 +8252,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B179" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C179" s="5">
         <v>150500</v>
@@ -8247,10 +8263,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B180" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C180" s="5">
         <v>150500</v>
@@ -8258,10 +8274,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B181" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C181" s="5">
         <v>166322</v>
@@ -8269,10 +8285,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B182" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C182" s="5">
         <v>150500</v>
@@ -8280,10 +8296,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B183" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C183" s="5">
         <v>146000</v>
@@ -8291,10 +8307,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B184" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C184" s="5">
         <v>146000</v>
@@ -8302,10 +8318,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B185" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C185" s="5">
         <v>146000</v>
@@ -8313,10 +8329,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B186" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C186" s="5">
         <v>149262</v>
@@ -8324,10 +8340,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B187" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C187" s="5">
         <v>149262</v>
@@ -8335,10 +8351,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B188" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C188" s="5">
         <v>146500</v>
@@ -8346,10 +8362,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B189" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C189" s="5">
         <v>140990</v>
@@ -8357,10 +8373,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B190" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C190" s="5">
         <v>129900</v>
@@ -8368,10 +8384,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B191" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C191" s="5">
         <v>146850</v>
@@ -8379,10 +8395,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B192" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C192" s="5">
         <v>142667</v>
@@ -8390,10 +8406,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B193" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C193" s="5">
         <v>146655</v>
@@ -8401,10 +8417,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B194" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C194" s="5">
         <v>146972</v>
@@ -8412,10 +8428,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B195" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C195" s="5">
         <v>146972</v>
@@ -8423,10 +8439,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B196" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C196" s="5">
         <v>146972</v>
@@ -8434,10 +8450,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B197" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C197" s="5">
         <v>142888</v>
@@ -8445,10 +8461,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B198" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C198" s="5">
         <v>154160</v>
@@ -8456,10 +8472,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B199" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C199" s="5">
         <v>148945</v>
@@ -8467,10 +8483,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B200" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C200" s="5">
         <v>149262</v>
@@ -8478,10 +8494,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B201" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C201" s="5">
         <v>129900</v>
@@ -8489,10 +8505,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B202" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C202" s="5">
         <v>131900</v>
@@ -8500,10 +8516,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B203" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C203" s="5">
         <v>148658</v>
@@ -8511,10 +8527,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B204" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C204" s="5">
         <v>139900</v>
@@ -8522,10 +8538,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B205" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C205" s="5">
         <v>142977</v>
@@ -8533,10 +8549,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B206" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C206" s="5">
         <v>145375</v>
@@ -8544,10 +8560,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B207" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C207" s="5">
         <v>131900</v>
@@ -8555,10 +8571,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B208" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C208" s="5">
         <v>143415</v>
@@ -8566,10 +8582,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B209" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C209" s="5">
         <v>143625</v>
@@ -8577,10 +8593,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B210" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C210" s="5">
         <v>150475</v>
@@ -8588,10 +8604,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B211" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C211" s="5">
         <v>136900</v>
@@ -8599,10 +8615,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B212" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C212" s="5">
         <v>144910</v>
@@ -8610,10 +8626,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B213" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C213" s="5">
         <v>153260</v>
@@ -8621,10 +8637,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B214" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C214" s="5">
         <v>144808</v>
@@ -8649,26 +8665,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C3">
         <v>8700</v>
@@ -8676,10 +8692,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C4">
         <v>4600</v>
@@ -8687,10 +8703,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C5">
         <v>10500</v>
@@ -8698,10 +8714,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C6">
         <v>6500</v>
@@ -8709,10 +8725,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C7">
         <v>3000</v>
@@ -8720,10 +8736,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C8">
         <v>10000</v>
@@ -8731,10 +8747,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C9">
         <v>13000</v>
@@ -8742,10 +8758,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C10">
         <v>9000</v>
@@ -8753,10 +8769,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C11">
         <v>19000</v>
@@ -8764,10 +8780,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C12">
         <v>5500</v>
@@ -8792,49 +8808,49 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B2" s="17">
         <f>_xlfn.STDEV.S(LDVs!D2:D51)</f>
         <v>8309.8800311829455</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B3" s="3">
         <f>_xlfn.STDEV.S('Conventional Daycab Trucks'!C:C,'Conventional Sleeper Trucks'!C:C)</f>
         <v>13630.200652086061</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B4" s="3">
         <f>_xlfn.STDEV.S(Motorbikes!C3:C12)</f>
         <v>4633.1654645849012</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -8845,7 +8861,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8859,116 +8875,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="23" t="s">
         <v>516</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="23" t="s">
         <v>519</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="23" t="s">
         <v>520</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>522</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>66733.274166000003</v>
+        <v>50758.840541774327</v>
       </c>
       <c r="C2" s="3">
-        <v>63555.320858571446</v>
+        <v>80512.080109999981</v>
       </c>
       <c r="D2" s="3">
-        <v>777558.88623342291</v>
+        <v>703780</v>
       </c>
       <c r="E2" s="3">
-        <v>215046.42741217426</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+        <v>206127.38518562954</v>
+      </c>
+      <c r="F2" s="21">
+        <v>94933107.191416278</v>
+      </c>
+      <c r="G2" s="21">
+        <v>94933107.191416278</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3660659.6603373885</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3660659.6603373885</v>
+      </c>
+      <c r="J2" s="3">
+        <v>43927.915924048662</v>
+      </c>
+      <c r="K2" s="3">
+        <v>14642638.641349554</v>
       </c>
       <c r="L2" s="3">
-        <v>15992.05339289682</v>
+        <v>14759.423945652174</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>45171.020185999994</v>
+        <v>38287.706053517766</v>
       </c>
       <c r="C3" s="3">
-        <v>43848.481093999995</v>
+        <v>65223.591570561439</v>
       </c>
       <c r="D3" s="3">
-        <v>513514.64247010724</v>
+        <v>489601.85316835809</v>
       </c>
       <c r="E3" s="3">
-        <v>142020.7411196451</v>
-      </c>
-      <c r="F3">
+        <v>135407.27428151103</v>
+      </c>
+      <c r="F3" s="22">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="22">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>0</v>
       </c>
       <c r="L3">
@@ -8979,14 +8998,14 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
+      <c r="A4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B4" s="18">
-        <v>37472.661407999993</v>
+        <v>30882.93891032293</v>
       </c>
       <c r="C4" s="3">
-        <v>35338.939199</v>
+        <v>58361.792809999999</v>
       </c>
       <c r="D4" s="3">
         <v>480637.41599999997</v>
@@ -8994,22 +9013,22 @@
       <c r="E4" s="3">
         <v>132928.01486984815</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="22">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="22">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K4" s="3">
         <v>0</v>
       </c>
       <c r="L4" s="18">
@@ -9020,14 +9039,14 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
+      <c r="A5" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>41250.262873</v>
+        <v>32733.505566166878</v>
       </c>
       <c r="C5" s="3">
-        <v>41041.128928999999</v>
+        <v>64029.370624000003</v>
       </c>
       <c r="D5" s="3">
         <v>480637.41599999997</v>
@@ -9035,23 +9054,23 @@
       <c r="E5" s="18">
         <v>132928.01486984815</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
+      <c r="F5" s="21">
+        <v>64833333.333333336</v>
+      </c>
+      <c r="G5" s="21">
+        <v>64833333.333333336</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="J5" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K5" s="3">
+        <v>10000000</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -9061,37 +9080,37 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
+      <c r="A6" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>56853.790958999998</v>
+        <v>38021.991142086437</v>
       </c>
       <c r="C6" s="3">
-        <v>51017.118906285701</v>
+        <v>54775.354912666604</v>
       </c>
       <c r="D6" s="3">
-        <v>662445.69787272683</v>
+        <v>558290.08404758247</v>
       </c>
       <c r="E6" s="3">
-        <v>183210.02203726224</v>
-      </c>
-      <c r="F6">
+        <v>154404.11029915701</v>
+      </c>
+      <c r="F6" s="22">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="22">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>0</v>
       </c>
       <c r="L6">
@@ -9102,38 +9121,38 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B7" s="3">
+        <v>39464.208493999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>72501.771649563496</v>
+      </c>
+      <c r="D7" s="3">
+        <v>614189.4477763311</v>
+      </c>
+      <c r="E7" s="3">
+        <v>150517.12184581585</v>
+      </c>
+      <c r="F7" s="22">
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="G7" s="22">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="3">
-        <v>64833333.333333336</v>
-      </c>
-      <c r="G7" s="3">
-        <v>64833333.333333336</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2500000</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2500000</v>
-      </c>
       <c r="J7" s="3">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -9142,8 +9161,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B8" s="3">
+        <v>71671.802858802301</v>
+      </c>
+      <c r="C8" s="3">
+        <v>82293.84992932812</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1115442.7441684157</v>
+      </c>
+      <c r="E8" s="3">
+        <v>170845.9414873973</v>
+      </c>
+      <c r="F8" s="21">
+        <v>150462425.18688756</v>
+      </c>
+      <c r="G8" s="21">
+        <v>150462425.18688756</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5801893.0020650728</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5801893.0020650728</v>
+      </c>
+      <c r="J8" s="3">
+        <v>69622.716024780879</v>
+      </c>
+      <c r="K8" s="3">
+        <v>23207572.008260291</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9152,7 +9213,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9162,40 +9223,46 @@
     <col min="2" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="7" width="24.28515625" customWidth="1"/>
+    <col min="6" max="8" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>623</v>
+      </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
       </c>
       <c r="B2" s="3">
         <f>D2*('Data from BNVP'!B2/'Data from BNVP'!B4)</f>
-        <v>14798.6687246375</v>
+        <v>13658.022529814965</v>
       </c>
       <c r="C2" s="3">
         <f>D2*('Data from BNVP'!B3/'Data from BNVP'!B4)</f>
-        <v>10017.056289246289</v>
+        <v>10302.330516464528</v>
       </c>
       <c r="D2" s="18">
         <f>Calculations!B2</f>
@@ -9203,27 +9270,32 @@
       </c>
       <c r="E2" s="3">
         <f>D2*('Data from BNVP'!B5/'Data from BNVP'!B4)</f>
-        <v>9147.59514935892</v>
+        <v>8807.824444583006</v>
       </c>
       <c r="F2" s="3">
         <f>D2*('Data from BNVP'!B6/'Data from BNVP'!B4)</f>
-        <v>12607.809652035583</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10230.832818563998</v>
+      </c>
+      <c r="G2" s="3">
+        <f>D2*('Data from BNVP'!B7/'Data from BNVP'!B4)</f>
+        <v>10618.899938992296</v>
+      </c>
+      <c r="H2" s="3">
+        <f>D2*('Data from BNVP'!B8/'Data from BNVP'!B4)</f>
+        <v>19285.213920368249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
-        <f>'SDoVPbT-frgt'!E3*('Data from BNVP'!D2/'Data from BNVP'!E5)</f>
-        <v>79729.496062594888</v>
+        <f>'SDoVPbT-frgt'!E$3*('Data from BNVP'!D2/'Data from BNVP'!$E$5)</f>
+        <v>72164.341161022006</v>
       </c>
       <c r="C3" s="3">
         <f>'SDoVPbT-frgt'!E3*('Data from BNVP'!D3/'Data from BNVP'!E5)</f>
-        <v>52654.872048641708</v>
+        <v>50202.897446801551</v>
       </c>
       <c r="D3" s="3">
         <f>'SDoVPbT-frgt'!E3*('Data from BNVP'!D4/'Data from BNVP'!E5)</f>
@@ -9235,88 +9307,112 @@
       </c>
       <c r="F3" s="3">
         <f>'SDoVPbT-frgt'!E3*('Data from BNVP'!D6/'Data from BNVP'!E5)</f>
-        <v>67925.995825312988</v>
-      </c>
-      <c r="G3">
+        <v>57246.065662601075</v>
+      </c>
+      <c r="G3" s="3">
+        <f>'SDoVPbT-frgt'!E3*('Data from BNVP'!D7/'Data from BNVP'!E5)</f>
+        <v>62977.886337819873</v>
+      </c>
+      <c r="H3" s="3">
+        <f>'SDoVPbT-frgt'!E3*('Data from BNVP'!D8/'Data from BNVP'!E5)</f>
+        <v>114375.50191218297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!F2/'Data from BNVP'!$E$5)</f>
+        <v>9734270.8443508428</v>
+      </c>
+      <c r="C4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
+      <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" s="3">
+        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!F5/'Data from BNVP'!$E$5)</f>
+        <v>6647893.9232045906</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!F8/'Data from BNVP'!$E$5)</f>
+        <v>15428147.692604657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!H2/'Data from BNVP'!$E$5)</f>
+        <v>375357.48757136922</v>
+      </c>
+      <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" s="3">
+        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!H5/'Data from BNVP'!$E$5)</f>
+        <v>256345.52403102536</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!H8/'Data from BNVP'!$E$5)</f>
+        <v>594915.72079452395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!J2/'Data from BNVP'!$E$5)</f>
+        <v>4504.2898508564313</v>
+      </c>
+      <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="D6" s="3">
+        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!J4/'Data from BNVP'!$E$5)</f>
+        <v>3076.1462883723043</v>
+      </c>
+      <c r="E6" s="3">
+        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!J5/'Data from BNVP'!$E$5)</f>
+        <v>3076.1462883723043</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!J8/'Data from BNVP'!$E$5)</f>
+        <v>7138.988649534288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
         <f>D7*('Data from BNVP'!L2/'Data from BNVP'!L4)</f>
-        <v>8250.9832391723103</v>
+        <v>7615.0170715103632</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -9332,6 +9428,9 @@
         <v>0</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
     </row>
@@ -9345,7 +9444,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9355,68 +9454,79 @@
     <col min="2" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="7" width="24.28515625" customWidth="1"/>
+    <col min="6" max="8" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>623</v>
+      </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
       </c>
       <c r="B2" s="3">
         <f>'SDoVPbT-psgr'!D2*('Data from BNVP'!C2/'Data from BNVP'!B4)</f>
-        <v>14093.930663951092</v>
+        <v>21663.926762859195</v>
       </c>
       <c r="C2" s="3">
         <f>'SDoVPbT-psgr'!D2*('Data from BNVP'!C3/'Data from BNVP'!B4)</f>
-        <v>9723.7720447297434</v>
+        <v>17550.150350913391</v>
       </c>
       <c r="D2" s="3">
         <f>'SDoVPbT-psgr'!D2*('Data from BNVP'!C4/'Data from BNVP'!B4)</f>
-        <v>7836.7090603888819</v>
+        <v>15703.80001929629</v>
       </c>
       <c r="E2" s="3">
         <f>'SDoVPbT-psgr'!D2*('Data from BNVP'!C5/'Data from BNVP'!B4)</f>
-        <v>9101.217926076959</v>
+        <v>17228.81329081468</v>
       </c>
       <c r="F2" s="3">
         <f>'SDoVPbT-psgr'!D2*('Data from BNVP'!C6/'Data from BNVP'!B4)</f>
-        <v>11313.478192326145</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14738.77305885482</v>
+      </c>
+      <c r="G2" s="3">
+        <f>'SDoVPbT-psgr'!D2*('Data from BNVP'!C7/'Data from BNVP'!B4)</f>
+        <v>19508.539203654229</v>
+      </c>
+      <c r="H2" s="3">
+        <f>'SDoVPbT-psgr'!D2*('Data from BNVP'!C8/'Data from BNVP'!B4)</f>
+        <v>22143.359548864228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
         <f>E3*('Data from BNVP'!E2/'Data from BNVP'!E5)</f>
-        <v>22050.475650389468</v>
+        <v>21135.933029022086</v>
       </c>
       <c r="C3" s="3">
         <f>E3*('Data from BNVP'!E3/'Data from BNVP'!E5)</f>
-        <v>14562.552522236007</v>
+        <v>13884.41947332269</v>
       </c>
       <c r="D3" s="3">
         <f>E3*('Data from BNVP'!E4/'Data from BNVP'!E5)</f>
@@ -9428,84 +9538,107 @@
       </c>
       <c r="F3" s="3">
         <f>E3*('Data from BNVP'!E6/'Data from BNVP'!E5)</f>
-        <v>18786.027642751076</v>
-      </c>
-      <c r="G3">
+        <v>15832.321026872658</v>
+      </c>
+      <c r="G3" s="3">
+        <f>E3*('Data from BNVP'!E7/'Data from BNVP'!E5)</f>
+        <v>15433.756190082944</v>
+      </c>
+      <c r="H3" s="3">
+        <f>E3*('Data from BNVP'!E8/'Data from BNVP'!E5)</f>
+        <v>17518.236959664304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <f>$E$3*('Data from BNVP'!G2/'Data from BNVP'!$E$5)</f>
+        <v>9734270.8443508428</v>
+      </c>
+      <c r="C4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
+      <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" s="3">
+        <f>$E$3*('Data from BNVP'!G5/'Data from BNVP'!$E$5)</f>
+        <v>6647893.9232045906</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <f>$E$3*('Data from BNVP'!G8/'Data from BNVP'!$E$5)</f>
+        <v>15428147.692604657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <f>$E$3*('Data from BNVP'!I2/'Data from BNVP'!$E$5)</f>
+        <v>375357.48757136922</v>
+      </c>
+      <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" s="3">
+        <f>$E$3*('Data from BNVP'!I5/'Data from BNVP'!$E$5)</f>
+        <v>256345.52403102536</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <f>$E$3*('Data from BNVP'!I8/'Data from BNVP'!$E$5)</f>
+        <v>594915.72079452395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <f>$E$3*('Data from BNVP'!K2/'Data from BNVP'!$E$5)</f>
+        <v>1501429.9502854769</v>
+      </c>
+      <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="E6" s="3">
+        <f>$E$3*('Data from BNVP'!K5/'Data from BNVP'!$E$5)</f>
+        <v>1025382.0961241014</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f>$E$3*('Data from BNVP'!K8/'Data from BNVP'!$E$5)</f>
+        <v>2379662.8831780958</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="19">
         <v>0</v>
@@ -9523,6 +9656,9 @@
         <v>0</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
     </row>
@@ -9784,13 +9920,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAECAF9C-13C9-4F74-BC69-0234DE7E2DDA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81485E5F-171A-4DBC-AAE6-15B70BABD61F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EEE69DF-7FA2-4A6E-B06F-07E9D4A7A1C6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E214856-9EEB-462A-BAD5-E94DA7421785}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03FE0867-A9DB-43A0-ADFD-B4B925F49576}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6F19B1A-62E8-4E65-B6CD-7D496D98FF0A}"/>
 </file>
--- a/InputData/trans/SDoVPbT/Std Dev of Veh Prices by Technology.xlsx
+++ b/InputData/trans/SDoVPbT/Std Dev of Veh Prices by Technology.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\trans\SDoVPbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\Hong Kong\Models\eps-hongkong\InputData\trans\SDoVPbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="23955" windowHeight="13110"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="23955" windowHeight="13110" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2081,7 +2081,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2119,7 +2119,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2511,7 +2510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8875,43 +8874,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>624</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>512</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>516</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>518</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>520</v>
       </c>
     </row>
@@ -8931,10 +8930,10 @@
       <c r="E2" s="3">
         <v>206127.38518562954</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="20">
         <v>94933107.191416278</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="20">
         <v>94933107.191416278</v>
       </c>
       <c r="H2" s="3">
@@ -8972,10 +8971,10 @@
       <c r="E3" s="3">
         <v>135407.27428151103</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>0</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <v>0</v>
       </c>
       <c r="H3" s="3">
@@ -9013,10 +9012,10 @@
       <c r="E4" s="3">
         <v>132928.01486984815</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>0</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
         <v>0</v>
       </c>
       <c r="H4" s="3">
@@ -9054,10 +9053,10 @@
       <c r="E5" s="18">
         <v>132928.01486984815</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>64833333.333333336</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>64833333.333333336</v>
       </c>
       <c r="H5" s="3">
@@ -9095,10 +9094,10 @@
       <c r="E6" s="3">
         <v>154404.11029915701</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>0</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <v>0</v>
       </c>
       <c r="H6" s="3">
@@ -9136,10 +9135,10 @@
       <c r="E7" s="3">
         <v>150517.12184581585</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>0</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>0</v>
       </c>
       <c r="H7" s="3">
@@ -9177,10 +9176,10 @@
       <c r="E8" s="3">
         <v>170845.9414873973</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>150462425.18688756</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>150462425.18688756</v>
       </c>
       <c r="H8" s="3">
@@ -9227,7 +9226,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>623</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -9446,7 +9445,9 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9458,7 +9459,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>623</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -9640,26 +9641,33 @@
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="19">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+      <c r="B7" s="3">
+        <f>'SDoVPbT-psgr'!B2</f>
+        <v>13658.022529814965</v>
+      </c>
+      <c r="C7" s="3">
+        <f>'SDoVPbT-psgr'!C2</f>
+        <v>10302.330516464528</v>
+      </c>
+      <c r="D7" s="3">
+        <f>'SDoVPbT-psgr'!D2</f>
+        <v>8309.8800311829455</v>
+      </c>
+      <c r="E7" s="3">
+        <f>'SDoVPbT-psgr'!E2</f>
+        <v>8807.824444583006</v>
+      </c>
+      <c r="F7" s="3">
+        <f>'SDoVPbT-psgr'!F2</f>
+        <v>10230.832818563998</v>
+      </c>
+      <c r="G7" s="3">
+        <f>'SDoVPbT-psgr'!G2</f>
+        <v>10618.899938992296</v>
+      </c>
+      <c r="H7" s="3">
+        <f>'SDoVPbT-psgr'!H2</f>
+        <v>19285.213920368249</v>
       </c>
     </row>
   </sheetData>
@@ -9668,6 +9676,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9901,32 +9927,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81485E5F-171A-4DBC-AAE6-15B70BABD61F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6F19B1A-62E8-4E65-B6CD-7D496D98FF0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E214856-9EEB-462A-BAD5-E94DA7421785}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E214856-9EEB-462A-BAD5-E94DA7421785}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6F19B1A-62E8-4E65-B6CD-7D496D98FF0A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81485E5F-171A-4DBC-AAE6-15B70BABD61F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>